--- a/sellingReportPayPal.xlsx
+++ b/sellingReportPayPal.xlsx
@@ -64,7 +64,7 @@
     <t>Ich bin dann mal nackt</t>
   </si>
   <si>
-    <t>Joachim Meyerhoff: Die Zweisamkeit der Einzelgänge</t>
+    <t>Joachim Meyerhoff: Die Zweisamkeit der Einzelgänger</t>
   </si>
   <si>
     <t>Schwester</t>
